--- a/biology/Médecine/Jean-Pierre_Olié/Jean-Pierre_Olié.xlsx
+++ b/biology/Médecine/Jean-Pierre_Olié/Jean-Pierre_Olié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Oli%C3%A9</t>
+          <t>Jean-Pierre_Olié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Olié, né le 17 avril 1945 à Aubin et mort le 12 avril 2023 à Paris, est un psychiatre et un professeur de médecine français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Oli%C3%A9</t>
+          <t>Jean-Pierre_Olié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Olié fait ses études secondaires au lycée de Rodez, puis de médecine à Montpellier, où il soutient sa thèse en 1974[1]. Sa carrière médicale l'a conduit à être professeur de médecine à l'université Paris-Descartes et chef de service hospitalo-universitaire[2],[3] notamment comme chef de pôle au centre hospitalier Sainte-Anne[4]. Il est président de la Fondation Pierre-Deniker[3], membre titulaire de l'Académie de médecine (2010) et rédacteur en chef de L'Encéphale[1].
-Il meurt le 12 avril 2023[5],[6] dans le 15e arrondissement de Paris[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Olié fait ses études secondaires au lycée de Rodez, puis de médecine à Montpellier, où il soutient sa thèse en 1974. Sa carrière médicale l'a conduit à être professeur de médecine à l'université Paris-Descartes et chef de service hospitalo-universitaire, notamment comme chef de pôle au centre hospitalier Sainte-Anne. Il est président de la Fondation Pierre-Deniker, membre titulaire de l'Académie de médecine (2010) et rédacteur en chef de L'Encéphale.
+Il meurt le 12 avril 2023, dans le 15e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Oli%C3%A9</t>
+          <t>Jean-Pierre_Olié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A propos de l'étude familiale des sujets réputés paranoïaques persécutés, Université de Paris 7, Faculté de médecine Saint-Louis Lariboisière, 1974, 86 p.[8] (thèse).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A propos de l'étude familiale des sujets réputés paranoïaques persécutés, Université de Paris 7, Faculté de médecine Saint-Louis Lariboisière, 1974, 86 p. (thèse).
 (avec Marie-Claude Novikoff) 101 réponses à propos de la dépression, 1978, Hachette  (ISBN 978-2010045028)
 (avec Henri Lôo et Christian Gay) Le déprimé et son lithium, 1997, Éditions Masson, Médecine et psychothérapie, 167 p.  (ISBN 978-2225816291)
 (avec Pierre Deniker) Fou, moi ? La psychiatrie hier et aujourd'hui, 1998, Éditions Odile Jacob, coll. « Psychologie », 318 p.  (ISBN 978-2738105370)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Oli%C3%A9</t>
+          <t>Jean-Pierre_Olié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1985 : colauréat du prix Jocelyne Cheddoudi de l'Académie nationale de médecine[3].
-2010 : Académie nationale de médecine[9].
- Officier de la Légion d'honneur (2008)[3]'[10]
- Commandeur de l'ordre national du Mérite[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1985 : colauréat du prix Jocelyne Cheddoudi de l'Académie nationale de médecine.
+2010 : Académie nationale de médecine.
+ Officier de la Légion d'honneur (2008)'
+ Commandeur de l'ordre national du Mérite.</t>
         </is>
       </c>
     </row>
